--- a/ADRC_p2/dados.xlsx
+++ b/ADRC_p2/dados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Outros\Adrc\ADRC\ADRC_p2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sofia\Documents\GitHub\ADRC\ADRC_p2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0330A7FE-14E7-4F67-92E4-4D1D254F9909}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2145B013-CC88-4F7F-AFED-3A2D9B66E5F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CA91DA66-930F-4985-AE5C-99FEEDAEEC8B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{CA91DA66-930F-4985-AE5C-99FEEDAEEC8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -42,13 +42,13 @@
     <t>Fornecedores</t>
   </si>
   <si>
-    <t>Shortest Path</t>
+    <t>Distance</t>
   </si>
   <si>
-    <t>Commercial Path</t>
+    <t>Caminhos Comerciais</t>
   </si>
   <si>
-    <t>Distance</t>
+    <t>Caminhos Mais Curtos</t>
   </si>
 </sst>
 </file>
@@ -106,7 +106,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -173,7 +173,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -192,7 +192,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Commercial Path</c:v>
+                  <c:v>Caminhos Comerciais</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -339,7 +339,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Shortest Path</c:v>
+                  <c:v>Caminhos Mais Curtos</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -695,7 +695,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="543301816"/>
@@ -782,7 +782,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -814,7 +814,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="543300832"/>
@@ -856,7 +856,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -893,7 +893,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1502,7 +1502,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1800,18 +1800,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6808DFEE-4B3D-4738-BE61-EAD8CEEEE2EF}">
   <dimension ref="B2:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:D42"/>
+    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="110" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>0.88146996</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>0.11241299</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -1835,18 +1835,18 @@
         <v>6.1169939999999997E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>1</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>1.2747271000000001E-4</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>2</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>3.9014109999999998E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>3</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>0.35240415000000003</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>4</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>0.80730080000000004</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>5</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>0.96785299999999996</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>6</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>0.99440472999999996</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>7</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>0.99858400000000003</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>8</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>0.99984664000000001</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>9</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>0.99999309999999997</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>10</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>0.99999994000000003</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>11</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>12</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>13</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>14</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>15</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>16</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>17</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>18</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>19</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>20</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>21</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>22</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>23</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>24</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>25</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>26</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>27</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>28</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>29</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>30</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>31</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>32</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>33</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>34</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>35</v>
       </c>
